--- a/combinaciones.xlsx
+++ b/combinaciones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Programacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E03D9BF-8A7B-49BC-9331-5BE7749049C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABA0D21-9E42-4EB2-979E-AE6231D0991C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="32">
   <si>
     <t>Espacio 1</t>
   </si>
@@ -58,9 +58,6 @@
     <t>falta magnitud</t>
   </si>
   <si>
-    <t>no es suficiente</t>
-  </si>
-  <si>
     <t>casos que salen del CCA y CAA</t>
   </si>
   <si>
@@ -80,6 +77,45 @@
   </si>
   <si>
     <t>revision</t>
+  </si>
+  <si>
+    <t>cmap</t>
+  </si>
+  <si>
+    <t>0 , 1</t>
+  </si>
+  <si>
+    <t>Si es suficiente pero con condiciones</t>
+  </si>
+  <si>
+    <t>5,In2</t>
+  </si>
+  <si>
+    <t>--------</t>
+  </si>
+  <si>
+    <t>-----------------</t>
+  </si>
+  <si>
+    <t>---------</t>
+  </si>
+  <si>
+    <t>--------------------</t>
+  </si>
+  <si>
+    <t>-----------------------</t>
+  </si>
+  <si>
+    <t>----------</t>
+  </si>
+  <si>
+    <t>8, In1</t>
+  </si>
+  <si>
+    <t>2, In3</t>
+  </si>
+  <si>
+    <t>4, In4</t>
   </si>
 </sst>
 </file>
@@ -210,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -227,6 +263,13 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,18 +577,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:R44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="15" max="15" width="34.140625" customWidth="1"/>
+    <col min="18" max="18" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -559,7 +603,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -573,7 +617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -587,7 +631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -609,8 +653,11 @@
       <c r="L4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -624,7 +671,7 @@
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>3</v>
@@ -644,8 +691,11 @@
       <c r="Q5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
@@ -659,7 +709,7 @@
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>3</v>
@@ -679,8 +729,11 @@
       <c r="Q6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R6" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -694,7 +747,7 @@
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
@@ -709,13 +762,16 @@
         <v>3</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="Q7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R7" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -729,7 +785,7 @@
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>3</v>
@@ -746,8 +802,14 @@
       <c r="O8" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="R8" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -761,10 +823,10 @@
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>3</v>
@@ -784,8 +846,11 @@
       <c r="Q9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R9" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>3</v>
       </c>
@@ -799,7 +864,7 @@
         <v>6</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>3</v>
@@ -814,13 +879,16 @@
         <v>6</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="Q10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R10" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>4</v>
       </c>
@@ -834,7 +902,7 @@
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J11" s="10" t="s">
         <v>4</v>
@@ -851,8 +919,14 @@
       <c r="O11" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q11" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="R11" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>4</v>
       </c>
@@ -866,7 +940,7 @@
         <v>4</v>
       </c>
       <c r="H12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J12" s="12" t="s">
         <v>4</v>
@@ -883,8 +957,14 @@
       <c r="O12" s="12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="R12" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>4</v>
       </c>
@@ -915,8 +995,11 @@
       <c r="Q13">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R13" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>4</v>
       </c>
@@ -947,8 +1030,11 @@
       <c r="Q14">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R14" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>4</v>
       </c>
@@ -961,8 +1047,9 @@
       <c r="D15" s="10">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R15" s="14"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>4</v>
       </c>
@@ -975,8 +1062,9 @@
       <c r="D16" s="12">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R16" s="14"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>4</v>
       </c>
@@ -989,8 +1077,9 @@
       <c r="D17" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R17" s="14"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>4</v>
       </c>
@@ -1004,10 +1093,11 @@
         <v>8</v>
       </c>
       <c r="J18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="R18" s="14"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>4</v>
       </c>
@@ -1021,7 +1111,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
@@ -1035,10 +1125,10 @@
         <v>3</v>
       </c>
       <c r="G20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J20" s="9" t="s">
         <v>3</v>
@@ -1053,10 +1143,13 @@
         <v>5</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="R20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
@@ -1070,7 +1163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>5</v>
       </c>
@@ -1084,10 +1177,10 @@
         <v>6</v>
       </c>
       <c r="J22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>5</v>
       </c>
@@ -1101,7 +1194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>5</v>
       </c>
@@ -1127,10 +1220,13 @@
         <v>3</v>
       </c>
       <c r="O24" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="R24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>5</v>
       </c>
@@ -1144,7 +1240,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>5</v>
       </c>
@@ -1158,7 +1254,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>5</v>
       </c>
@@ -1172,7 +1268,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>5</v>
       </c>
